--- a/Income/BMY_inc.xlsx
+++ b/Income/BMY_inc.xlsx
@@ -2244,16 +2244,16 @@
         <v>0.5104</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.5045</v>
+        <v>0.5309</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.5316</v>
+        <v>0.5613</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.5735</v>
+        <v>0.607</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.6513</v>
+        <v>0.691</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.7023</v>
@@ -2746,22 +2746,22 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.0</v>
+        <v>0.3093</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0.3128</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.297</v>
+        <v>0.3006</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0.3442</v>
+        <v>0.3483</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.3146</v>
+        <v>0.3192</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.2766</v>
+        <v>0.282</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0.3603</v>
@@ -3762,22 +3762,22 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.0</v>
+        <v>0.3796</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0.3399</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.3284</v>
+        <v>0.3069</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.2999</v>
+        <v>0.2756</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.2843</v>
+        <v>0.257</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.2894</v>
+        <v>0.2571</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.3016</v>
@@ -3889,22 +3889,22 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0.0</v>
+        <v>0.3266</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0.3305</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.3153</v>
+        <v>0.3189</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0.3659</v>
+        <v>0.37</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.3409</v>
+        <v>0.3455</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.3085</v>
+        <v>0.314</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0.3965</v>
